--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16185" windowHeight="11835"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -119,6 +119,81 @@
   </si>
   <si>
     <t>Soldier</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>unit.CampType</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>skill.ReleaseType</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Postion</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>skill.TargetType</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>skill.TargetSelectRule</t>
+  </si>
+  <si>
+    <t>MinHPValue</t>
+  </si>
+  <si>
+    <t>最少总血量</t>
+  </si>
+  <si>
+    <t>MinHPPercent</t>
+  </si>
+  <si>
+    <t>最少百分比血量</t>
+  </si>
+  <si>
+    <t>TargetClosestSingle</t>
+  </si>
+  <si>
+    <t>靠近目标角色的单个选择</t>
+  </si>
+  <si>
+    <t>PositionClosestSingle</t>
+  </si>
+  <si>
+    <t>靠近某个位置的单个选择</t>
+  </si>
+  <si>
+    <t>TargetClosetMultiple</t>
+  </si>
+  <si>
+    <t>靠近目标角色的多个选择（范围选择）</t>
+  </si>
+  <si>
+    <t>PositionClosestMultiple</t>
+  </si>
+  <si>
+    <t>靠近某个位置的多个选择（范围选择</t>
   </si>
 </sst>
 </file>
@@ -126,15 +201,106 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -148,21 +314,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -170,115 +351,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,19 +380,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,157 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +583,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,6 +603,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,26 +637,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,15 +671,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,130 +691,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1078,21 +1153,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="3" max="4" width="30.9583333333333" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="10.3833333333333" customWidth="1"/>
+    <col min="9" max="9" width="9.325" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1168,7 +1243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1181,33 +1256,33 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="7:9">
+    </row>
+    <row r="5" spans="7:10">
       <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
       <c r="I5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="7:9">
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10">
       <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
       <c r="I6">
         <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -1291,6 +1366,180 @@
       </c>
       <c r="I13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9">
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9">
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9">
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9">
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9">
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9">
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10">
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10">
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10">
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10">
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28">
+        <v>101</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10">
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29">
+        <v>102</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="22365" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>靠近某个位置的多个选择（范围选择</t>
+  </si>
+  <si>
+    <t>skill.BattleEvent</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NormalAttackHit</t>
   </si>
 </sst>
 </file>
@@ -203,8 +212,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -222,18 +231,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,16 +315,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,98 +333,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,175 +389,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +580,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -593,16 +632,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,41 +661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,133 +700,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J16:J17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1542,6 +1551,31 @@
         <v>59</v>
       </c>
     </row>
+    <row r="30" spans="2:9">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9">
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31">
+        <v>1002</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
